--- a/table/virus_detection_results.xlsx
+++ b/table/virus_detection_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,6 +593,38 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>123.py</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-08-07 18:50:50</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0/65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.virustotal.com/gui/file/03ac674216f3e15c761ee1a5e255f067953623c8b388b4459e13f978d7c846f4/detection/f-03ac674216f3e15c761ee1a5e255f067953623c8b388b4459e13f978d7c846f4-1722872960</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
